--- a/data/RawData/ObsData/2009-2022/2019/03-07-2019.xlsx
+++ b/data/RawData/ObsData/2009-2022/2019/03-07-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\GoldenLionTamarinsBrazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE78315E-7133-490C-A8A2-B77B25F0A59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DCB57-82E5-4DD8-BD8D-C03EA3EC2CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3093,7 +3093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
